--- a/StructureDefinition-profile-ChargeItem.xlsx
+++ b/StructureDefinition-profile-ChargeItem.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2144" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2222" uniqueCount="426">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.6349111-06:00</t>
+    <t>2026-02-09T22:05:43.0087161-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -425,33 +425,79 @@
     <t>ChargeItem.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>ChargeItem.extension:unitPriceComponent</t>
+  </si>
+  <si>
+    <t>unitPriceComponent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ChargeItem.unitPriceComponent|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ChargeItem.unitPriceComponent from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The unit price of the chargable item.</t>
+  </si>
+  <si>
+    <t>Element `ChargeItem.unitPriceComponent` is will have a context of ChargeItem based on following the parent source element upwards and mapping to `ChargeItem`.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>ChargeItem.extension:totalPriceComponent</t>
+  </si>
+  <si>
+    <t>totalPriceComponent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ChargeItem.totalPriceComponent|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ChargeItem.totalPriceComponent from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The total price for the chargable item, accounting for the quantity.</t>
+  </si>
+  <si>
+    <t>Element `ChargeItem.totalPriceComponent` is will have a context of ChargeItem based on following the parent source element upwards and mapping to `ChargeItem`.</t>
+  </si>
+  <si>
+    <t>ChargeItem.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>ChargeItem.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -459,6 +505,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -756,6 +805,9 @@
     <t>ChargeItem.performer.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
@@ -828,27 +880,27 @@
     <t>ChargeItem.performer.actor.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>ChargeItem.performer.actor.extension:actor</t>
+  </si>
+  <si>
+    <t>actor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
 </t>
   </si>
   <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ChargeItem.performer.actor|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
     <t>Cross-version extension for ChargeItem.performer.actor from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/HealthcareService in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ChargeItem.performer.actor` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `ChargeItem.performer.actor` is mapped to FHIR R4 element `ChargeItem.performer.actor`.</t>
   </si>
   <si>
     <t>ChargeItem.performer.actor.reference</t>
@@ -1076,6 +1128,12 @@
     <t>ChargeItem.overrideReason.extension</t>
   </si>
   <si>
+    <t>ChargeItem.overrideReason.extension:overrideReason</t>
+  </si>
+  <si>
+    <t>overrideReason</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ChargeItem.overrideReason|0.0.1-snapshot-3}
 </t>
   </si>
@@ -1083,8 +1141,7 @@
     <t>Cross-version extension for ChargeItem.overrideReason from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
+    <t>Element `ChargeItem.overrideReason` is mapped to FHIR R4 element `ChargeItem.overrideReason`.</t>
   </si>
   <si>
     <t>ChargeItem.overrideReason.value</t>
@@ -1189,11 +1246,20 @@
     <t>ChargeItem.service.extension</t>
   </si>
   <si>
+    <t>ChargeItem.service.extension:service</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ChargeItem.service|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
     <t>Cross-version extension for ChargeItem.service from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `ChargeItem.service` is mapped to FHIR R4 element `ChargeItem.service`.</t>
   </si>
   <si>
     <t>ChargeItem.service.reference</t>
@@ -1588,7 +1654,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN59"/>
+  <dimension ref="A1:AN61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1597,9 +1663,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="34.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.83203125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="34.1875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="18.12890625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -2563,7 +2629,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2582,17 +2648,15 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>137</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>77</v>
@@ -2629,16 +2693,14 @@
         <v>77</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>138</v>
@@ -2662,7 +2724,7 @@
         <v>77</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>77</v>
@@ -2673,43 +2735,43 @@
         <v>140</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>77</v>
       </c>
@@ -2757,7 +2819,7 @@
         <v>77</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
@@ -2766,7 +2828,7 @@
         <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>139</v>
@@ -2778,7 +2840,7 @@
         <v>77</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>77</v>
@@ -2786,12 +2848,14 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="D11" t="s" s="2">
         <v>77</v>
       </c>
@@ -2800,7 +2864,7 @@
         <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>77</v>
@@ -2809,21 +2873,21 @@
         <v>77</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="N11" s="2"/>
-      <c r="O11" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>77</v>
       </c>
@@ -2871,7 +2935,7 @@
         <v>77</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
@@ -2880,34 +2944,34 @@
         <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>152</v>
+        <v>77</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>153</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -2920,13 +2984,13 @@
         <v>77</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="L12" t="s" s="2">
         <v>155</v>
@@ -2934,8 +2998,12 @@
       <c r="M12" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
+      <c r="N12" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="O12" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="P12" t="s" s="2">
         <v>77</v>
       </c>
@@ -2983,7 +3051,7 @@
         <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -2995,16 +3063,16 @@
         <v>77</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>157</v>
+        <v>77</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>77</v>
@@ -3035,7 +3103,7 @@
         <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K13" t="s" s="2">
         <v>161</v>
@@ -3047,7 +3115,9 @@
         <v>163</v>
       </c>
       <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
+      <c r="O13" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="P13" t="s" s="2">
         <v>77</v>
       </c>
@@ -3110,24 +3180,24 @@
         <v>100</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>77</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3135,32 +3205,30 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>77</v>
@@ -3185,37 +3253,37 @@
         <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>168</v>
+        <v>77</v>
       </c>
       <c r="Y14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF14" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="Z14" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>164</v>
-      </c>
       <c r="AG14" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>77</v>
@@ -3224,28 +3292,28 @@
         <v>100</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>173</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3273,9 +3341,7 @@
         <v>178</v>
       </c>
       <c r="N15" s="2"/>
-      <c r="O15" t="s" s="2">
-        <v>179</v>
-      </c>
+      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>77</v>
       </c>
@@ -3323,7 +3389,7 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
@@ -3338,13 +3404,13 @@
         <v>100</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>77</v>
@@ -3352,14 +3418,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>183</v>
+        <v>77</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3372,21 +3438,23 @@
         <v>77</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>184</v>
+        <v>108</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>77</v>
@@ -3411,13 +3479,13 @@
         <v>77</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>77</v>
@@ -3435,7 +3503,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>88</v>
@@ -3450,35 +3518,35 @@
         <v>100</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>77</v>
@@ -3487,20 +3555,20 @@
         <v>77</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>77</v>
@@ -3549,13 +3617,13 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>77</v>
@@ -3564,32 +3632,32 @@
         <v>100</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>201</v>
+        <v>173</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>203</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>88</v>
@@ -3604,18 +3672,16 @@
         <v>89</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="N18" s="2"/>
-      <c r="O18" t="s" s="2">
-        <v>209</v>
-      </c>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>77</v>
       </c>
@@ -3639,13 +3705,13 @@
         <v>77</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>77</v>
+        <v>204</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>77</v>
@@ -3663,10 +3729,10 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>88</v>
@@ -3678,32 +3744,32 @@
         <v>100</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>88</v>
@@ -3718,18 +3784,18 @@
         <v>89</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="O19" s="2"/>
+        <v>213</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="P19" t="s" s="2">
         <v>77</v>
       </c>
@@ -3777,10 +3843,10 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>88</v>
@@ -3792,35 +3858,35 @@
         <v>100</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>158</v>
+        <v>216</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>77</v>
+        <v>220</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>77</v>
@@ -3829,19 +3895,21 @@
         <v>77</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="L20" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>77</v>
       </c>
@@ -3889,13 +3957,13 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>77</v>
@@ -3904,28 +3972,28 @@
         <v>100</v>
       </c>
       <c r="AK20" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AM20" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AN20" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>77</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>77</v>
+        <v>230</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -3941,7 +4009,7 @@
         <v>77</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K21" t="s" s="2">
         <v>231</v>
@@ -3952,7 +4020,9 @@
       <c r="M21" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="N21" s="2"/>
+      <c r="N21" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>77</v>
@@ -4001,7 +4071,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -4013,31 +4083,31 @@
         <v>77</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>77</v>
+        <v>235</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>77</v>
+        <v>173</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>77</v>
+        <v>237</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4056,17 +4126,15 @@
         <v>77</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>134</v>
+        <v>239</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>135</v>
+        <v>240</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>77</v>
@@ -4127,16 +4195,16 @@
         <v>77</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>77</v>
+        <v>242</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>77</v>
+        <v>243</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>77</v>
@@ -4144,46 +4212,42 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>240</v>
+        <v>77</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>134</v>
+        <v>246</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>77</v>
       </c>
@@ -4231,19 +4295,19 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>77</v>
@@ -4252,7 +4316,7 @@
         <v>77</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>131</v>
+        <v>250</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>77</v>
@@ -4260,21 +4324,21 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>77</v>
@@ -4286,15 +4350,17 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>184</v>
+        <v>133</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>77</v>
@@ -4319,13 +4385,13 @@
         <v>77</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>187</v>
+        <v>77</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>247</v>
+        <v>77</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>248</v>
+        <v>77</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>77</v>
@@ -4343,25 +4409,25 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>249</v>
+        <v>77</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>250</v>
@@ -4372,42 +4438,46 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>77</v>
+        <v>256</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>252</v>
+        <v>133</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
       </c>
@@ -4455,39 +4525,39 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>255</v>
+        <v>77</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>228</v>
+        <v>77</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>256</v>
+        <v>131</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>257</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4510,13 +4580,13 @@
         <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>231</v>
+        <v>199</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>232</v>
+        <v>261</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4543,13 +4613,13 @@
         <v>77</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>77</v>
+        <v>263</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>77</v>
+        <v>264</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>77</v>
@@ -4567,7 +4637,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -4579,16 +4649,16 @@
         <v>77</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>77</v>
+        <v>265</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>77</v>
+        <v>173</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>77</v>
@@ -4596,10 +4666,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4610,7 +4680,7 @@
         <v>88</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>77</v>
@@ -4622,13 +4692,13 @@
         <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>134</v>
+        <v>268</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4667,51 +4737,51 @@
         <v>77</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>262</v>
+        <v>77</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>263</v>
+        <v>77</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>264</v>
+        <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>238</v>
+        <v>267</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>77</v>
+        <v>271</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>77</v>
+        <v>243</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>77</v>
+        <v>272</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>77</v>
+        <v>273</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4719,7 +4789,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>88</v>
@@ -4734,13 +4804,13 @@
         <v>77</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4791,19 +4861,19 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>77</v>
@@ -4812,7 +4882,7 @@
         <v>77</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>77</v>
+        <v>250</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
@@ -4820,10 +4890,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4831,10 +4901,10 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>77</v>
@@ -4843,20 +4913,18 @@
         <v>77</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>231</v>
+        <v>133</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>268</v>
+        <v>134</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>270</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>77</v>
@@ -4893,31 +4961,31 @@
         <v>77</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>77</v>
+        <v>276</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>272</v>
+        <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>77</v>
@@ -4926,7 +4994,7 @@
         <v>77</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -4934,18 +5002,20 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="C30" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="C30" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="D30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>88</v>
@@ -4957,19 +5027,19 @@
         <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>102</v>
+        <v>279</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4995,13 +5065,13 @@
         <v>77</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>277</v>
+        <v>77</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>278</v>
+        <v>77</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>279</v>
+        <v>77</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>77</v>
@@ -5019,19 +5089,19 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>77</v>
@@ -5040,7 +5110,7 @@
         <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>77</v>
@@ -5048,10 +5118,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5074,16 +5144,16 @@
         <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>146</v>
+        <v>246</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5133,7 +5203,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5142,7 +5212,7 @@
         <v>88</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>77</v>
+        <v>288</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>100</v>
@@ -5154,7 +5224,7 @@
         <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>77</v>
@@ -5162,10 +5232,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5188,16 +5258,16 @@
         <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>231</v>
+        <v>102</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5223,13 +5293,13 @@
         <v>77</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>77</v>
+        <v>293</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>77</v>
+        <v>294</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>77</v>
+        <v>295</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>77</v>
@@ -5247,7 +5317,7 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5276,10 +5346,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5299,19 +5369,19 @@
         <v>77</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>292</v>
+        <v>161</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5361,7 +5431,7 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5376,13 +5446,13 @@
         <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>255</v>
+        <v>77</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>296</v>
+        <v>167</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
@@ -5390,10 +5460,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5413,19 +5483,19 @@
         <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>292</v>
+        <v>246</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5475,7 +5545,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5493,10 +5563,10 @@
         <v>77</v>
       </c>
       <c r="AL34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>77</v>
@@ -5504,10 +5574,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5530,16 +5600,16 @@
         <v>77</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5589,7 +5659,7 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -5604,13 +5674,13 @@
         <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>77</v>
+        <v>271</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>305</v>
+        <v>131</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>77</v>
+        <v>312</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>
@@ -5618,10 +5688,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5641,19 +5711,19 @@
         <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5703,7 +5773,7 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -5721,10 +5791,10 @@
         <v>77</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>311</v>
+        <v>131</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>77</v>
+        <v>312</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>77</v>
@@ -5732,10 +5802,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5746,7 +5816,7 @@
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>77</v>
@@ -5755,19 +5825,19 @@
         <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>184</v>
+        <v>308</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5793,37 +5863,37 @@
         <v>77</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>187</v>
+        <v>77</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>316</v>
+        <v>77</v>
       </c>
       <c r="Z37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF37" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="AA37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>312</v>
-      </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>77</v>
@@ -5835,10 +5905,10 @@
         <v>77</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>77</v>
+        <v>321</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>318</v>
+        <v>77</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>77</v>
@@ -5846,10 +5916,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5869,19 +5939,19 @@
         <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -5931,7 +6001,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -5949,7 +6019,7 @@
         <v>77</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>77</v>
@@ -5960,10 +6030,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5974,7 +6044,7 @@
         <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>77</v>
@@ -5983,19 +6053,19 @@
         <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>326</v>
+        <v>199</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6021,13 +6091,13 @@
         <v>77</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>77</v>
+        <v>332</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>77</v>
+        <v>333</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>77</v>
@@ -6045,13 +6115,13 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>77</v>
@@ -6063,10 +6133,10 @@
         <v>77</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>330</v>
+        <v>77</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>77</v>
+        <v>334</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>77</v>
@@ -6074,10 +6144,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6100,16 +6170,16 @@
         <v>77</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>231</v>
+        <v>336</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6159,7 +6229,7 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6177,7 +6247,7 @@
         <v>77</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>77</v>
+        <v>340</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>77</v>
@@ -6188,10 +6258,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6214,15 +6284,17 @@
         <v>77</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>231</v>
+        <v>342</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>345</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>77</v>
@@ -6271,7 +6343,7 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>234</v>
+        <v>341</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6283,13 +6355,13 @@
         <v>77</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>77</v>
+        <v>346</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>77</v>
@@ -6300,10 +6372,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6311,11 +6383,11 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G42" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G42" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H42" t="s" s="2">
         <v>77</v>
       </c>
@@ -6326,15 +6398,17 @@
         <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>134</v>
+        <v>246</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>260</v>
+        <v>348</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>350</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>77</v>
@@ -6371,29 +6445,31 @@
         <v>77</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="AC42" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>264</v>
+        <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>238</v>
+        <v>347</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>77</v>
@@ -6410,10 +6486,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6436,13 +6512,13 @@
         <v>77</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>339</v>
+        <v>246</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6493,19 +6569,19 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>341</v>
+        <v>77</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>77</v>
@@ -6522,10 +6598,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6536,7 +6612,7 @@
         <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>77</v>
@@ -6548,13 +6624,13 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>231</v>
+        <v>133</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>343</v>
+        <v>134</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>344</v>
+        <v>135</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6578,7 +6654,7 @@
         <v>77</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>345</v>
+        <v>77</v>
       </c>
       <c r="X44" t="s" s="2">
         <v>77</v>
@@ -6593,31 +6669,29 @@
         <v>77</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AC44" s="2"/>
       <c r="AD44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>346</v>
+        <v>254</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>77</v>
@@ -6634,12 +6708,14 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="C45" s="2"/>
+        <v>354</v>
+      </c>
+      <c r="C45" t="s" s="2">
+        <v>356</v>
+      </c>
       <c r="D45" t="s" s="2">
         <v>77</v>
       </c>
@@ -6657,19 +6733,19 @@
         <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="M45" t="s" s="2">
-        <v>350</v>
-      </c>
       <c r="N45" t="s" s="2">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6719,39 +6795,39 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>347</v>
+        <v>254</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>228</v>
+        <v>77</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>256</v>
+        <v>77</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>257</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6771,20 +6847,18 @@
         <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>353</v>
+        <v>246</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>77</v>
@@ -6806,7 +6880,7 @@
         <v>77</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>77</v>
+        <v>363</v>
       </c>
       <c r="X46" t="s" s="2">
         <v>77</v>
@@ -6833,7 +6907,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -6845,7 +6919,7 @@
         <v>77</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>77</v>
@@ -6862,10 +6936,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6876,7 +6950,7 @@
         <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>77</v>
@@ -6885,19 +6959,19 @@
         <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>184</v>
+        <v>366</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -6923,13 +6997,13 @@
         <v>77</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>187</v>
+        <v>77</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>361</v>
+        <v>77</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>362</v>
+        <v>77</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>77</v>
@@ -6947,13 +7021,13 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>77</v>
@@ -6962,24 +7036,24 @@
         <v>100</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>363</v>
+        <v>77</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>364</v>
+        <v>243</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>365</v>
+        <v>272</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>366</v>
+        <v>273</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6990,7 +7064,7 @@
         <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>77</v>
@@ -6999,18 +7073,20 @@
         <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>373</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>374</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -7059,13 +7135,13 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>77</v>
@@ -7074,24 +7150,24 @@
         <v>100</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>371</v>
+        <v>77</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>364</v>
+        <v>77</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>372</v>
+        <v>77</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>366</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7102,7 +7178,7 @@
         <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>77</v>
@@ -7114,15 +7190,17 @@
         <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>231</v>
+        <v>199</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>232</v>
+        <v>376</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>377</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>378</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>77</v>
@@ -7147,13 +7225,13 @@
         <v>77</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>77</v>
+        <v>379</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>77</v>
+        <v>380</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>77</v>
@@ -7171,39 +7249,39 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>234</v>
+        <v>375</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>77</v>
+        <v>381</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>77</v>
+        <v>382</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>235</v>
+        <v>383</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>77</v>
+        <v>384</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7211,7 +7289,7 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>79</v>
@@ -7226,13 +7304,13 @@
         <v>77</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>134</v>
+        <v>386</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>260</v>
+        <v>387</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>261</v>
+        <v>388</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7271,19 +7349,19 @@
         <v>77</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>262</v>
+        <v>77</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>263</v>
+        <v>77</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>264</v>
+        <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>238</v>
+        <v>385</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7295,27 +7373,27 @@
         <v>77</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>77</v>
+        <v>389</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>77</v>
+        <v>382</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>77</v>
+        <v>390</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>77</v>
+        <v>384</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7326,7 +7404,7 @@
         <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>77</v>
@@ -7338,13 +7416,13 @@
         <v>77</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>375</v>
+        <v>246</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>376</v>
+        <v>247</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>370</v>
+        <v>248</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7395,19 +7473,19 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>77</v>
@@ -7416,7 +7494,7 @@
         <v>77</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>77</v>
+        <v>250</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>77</v>
@@ -7424,10 +7502,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7438,7 +7516,7 @@
         <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>77</v>
@@ -7447,20 +7525,18 @@
         <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>231</v>
+        <v>133</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>268</v>
+        <v>134</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>270</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>77</v>
@@ -7497,31 +7573,31 @@
         <v>77</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>77</v>
+        <v>276</v>
       </c>
       <c r="AD52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>272</v>
+        <v>77</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>77</v>
@@ -7530,7 +7606,7 @@
         <v>77</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>77</v>
@@ -7538,12 +7614,14 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="C53" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="C53" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="D53" t="s" s="2">
         <v>77</v>
       </c>
@@ -7552,7 +7630,7 @@
         <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>77</v>
@@ -7561,19 +7639,19 @@
         <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>102</v>
+        <v>395</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>274</v>
+        <v>396</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>275</v>
+        <v>388</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>276</v>
+        <v>397</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7599,13 +7677,13 @@
         <v>77</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>277</v>
+        <v>77</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>278</v>
+        <v>77</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>279</v>
+        <v>77</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>77</v>
@@ -7623,19 +7701,19 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>77</v>
@@ -7644,7 +7722,7 @@
         <v>77</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>77</v>
@@ -7652,10 +7730,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>379</v>
+        <v>398</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>379</v>
+        <v>398</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7678,16 +7756,16 @@
         <v>89</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>146</v>
+        <v>246</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -7737,7 +7815,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -7746,7 +7824,7 @@
         <v>88</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>77</v>
+        <v>288</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>100</v>
@@ -7758,7 +7836,7 @@
         <v>77</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>77</v>
@@ -7766,10 +7844,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>380</v>
+        <v>399</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>380</v>
+        <v>399</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7792,16 +7870,16 @@
         <v>89</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>231</v>
+        <v>102</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -7827,13 +7905,13 @@
         <v>77</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>77</v>
+        <v>293</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>77</v>
+        <v>294</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>77</v>
+        <v>295</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>77</v>
@@ -7851,7 +7929,7 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -7880,10 +7958,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>381</v>
+        <v>400</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>381</v>
+        <v>400</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7903,18 +7981,20 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>382</v>
+        <v>161</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>383</v>
+        <v>298</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>299</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>300</v>
+      </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>77</v>
@@ -7939,13 +8019,13 @@
         <v>77</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>187</v>
+        <v>77</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>385</v>
+        <v>77</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>386</v>
+        <v>77</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>77</v>
@@ -7963,7 +8043,7 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>381</v>
+        <v>301</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -7984,7 +8064,7 @@
         <v>77</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>387</v>
+        <v>167</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>77</v>
@@ -7992,10 +8072,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8006,7 +8086,7 @@
         <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>77</v>
@@ -8018,16 +8098,16 @@
         <v>89</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>389</v>
+        <v>246</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>390</v>
+        <v>303</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>391</v>
+        <v>304</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>392</v>
+        <v>305</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8077,13 +8157,13 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>388</v>
+        <v>306</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>77</v>
@@ -8098,7 +8178,7 @@
         <v>77</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>77</v>
@@ -8106,10 +8186,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8120,7 +8200,7 @@
         <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>77</v>
@@ -8132,13 +8212,13 @@
         <v>77</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8165,13 +8245,13 @@
         <v>77</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>77</v>
+        <v>406</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>77</v>
+        <v>407</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>77</v>
@@ -8189,13 +8269,13 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>77</v>
@@ -8204,13 +8284,13 @@
         <v>100</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>397</v>
+        <v>77</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>398</v>
+        <v>77</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>77</v>
@@ -8218,10 +8298,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8241,18 +8321,20 @@
         <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>412</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>413</v>
+      </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>77</v>
@@ -8301,7 +8383,7 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -8316,7 +8398,7 @@
         <v>100</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>404</v>
+        <v>77</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
@@ -8325,6 +8407,230 @@
         <v>77</v>
       </c>
       <c r="AN59" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q60" s="2"/>
+      <c r="R60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="P61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q61" s="2"/>
+      <c r="R61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN61" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/StructureDefinition-profile-ChargeItem.xlsx
+++ b/StructureDefinition-profile-ChargeItem.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2222" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2006" uniqueCount="417">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.0087161-06:00</t>
+    <t>2026-02-17T14:42:26.7478818-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -465,7 +465,7 @@
     <t>The unit price of the chargable item.</t>
   </si>
   <si>
-    <t>Element `ChargeItem.unitPriceComponent` is will have a context of ChargeItem based on following the parent source element upwards and mapping to `ChargeItem`.</t>
+    <t>Element `ChargeItem.unitPriceComponent` has a context of ChargeItem based on following the parent source element upwards and mapping to `ChargeItem`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -488,7 +488,7 @@
     <t>The total price for the chargable item, accounting for the quantity.</t>
   </si>
   <si>
-    <t>Element `ChargeItem.totalPriceComponent` is will have a context of ChargeItem based on following the parent source element upwards and mapping to `ChargeItem`.</t>
+    <t>Element `ChargeItem.totalPriceComponent` has a context of ChargeItem based on following the parent source element upwards and mapping to `ChargeItem`.</t>
   </si>
   <si>
     <t>ChargeItem.modifierExtension</t>
@@ -805,13 +805,23 @@
     <t>ChargeItem.performer.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
     <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ChargeItem.performer.extension:performer</t>
+  </si>
+  <si>
+    <t>performer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ChargeItem.performer|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ChargeItem.performer from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `ChargeItem.performer` has is mapped to FHIR R4 element `ChargeItem.performer`, but has no comparisons.</t>
   </si>
   <si>
     <t>ChargeItem.performer.modifierExtension</t>
@@ -874,36 +884,292 @@
     <t>FiveWs.actor</t>
   </si>
   <si>
-    <t>ChargeItem.performer.actor.id</t>
-  </si>
-  <si>
-    <t>ChargeItem.performer.actor.extension</t>
+    <t>ChargeItem.performingOrganization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Organization providing the charged service</t>
+  </si>
+  <si>
+    <t>The organization requesting the service.</t>
+  </si>
+  <si>
+    <t>Practitioners and Devices can be associated with multiple organizations. It has to be made clear, on behalf of which Organization the services have been rendered.</t>
+  </si>
+  <si>
+    <t>.scoper</t>
+  </si>
+  <si>
+    <t>ChargeItem.requestingOrganization</t>
+  </si>
+  <si>
+    <t>Organization requesting the charged service</t>
+  </si>
+  <si>
+    <t>The organization performing the service.</t>
+  </si>
+  <si>
+    <t>The rendered Service might not be associated with a Request. This property indicates which Organization requested the services to be rendered. (In many cases, this may just be the Department associated with the Encounter.location).</t>
+  </si>
+  <si>
+    <t>ChargeItem.costCenter</t>
+  </si>
+  <si>
+    <t>Organization that has ownership of the (potential, future) revenue</t>
+  </si>
+  <si>
+    <t>The financial cost center permits the tracking of charge attribution.</t>
+  </si>
+  <si>
+    <t>The costCenter could either be given as a reference to an Organization(Role) resource or as the identifier of the cost center determined by Reference.identifier.value and Reference.identifier.system, depending on use case requirements.</t>
+  </si>
+  <si>
+    <t>FT1.13</t>
+  </si>
+  <si>
+    <t>ChargeItem.quantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity
+</t>
+  </si>
+  <si>
+    <t>Quantity of which the charge item has been serviced</t>
+  </si>
+  <si>
+    <t>Quantity of which the charge item has been serviced.</t>
+  </si>
+  <si>
+    <t>In many cases this may just be a value, if the underlying units are implicit in the definition of the charge item code.</t>
+  </si>
+  <si>
+    <t>FT1.10</t>
+  </si>
+  <si>
+    <t>ChargeItem.bodysite</t>
+  </si>
+  <si>
+    <t>Anatomical location, if relevant</t>
+  </si>
+  <si>
+    <t>The anatomical location where the related service has been applied.</t>
+  </si>
+  <si>
+    <t>Only used if not implicit in code found in Condition.code. If the use case requires attributes from the BodySite resource (e.g. to identify and track separately) then use the standard extension [bodySite](http://hl7.org/fhir/R4/extension-bodysite.html).  May be a summary code, or a reference to a very precise definition of the location, or both.</t>
+  </si>
+  <si>
+    <t>Codes describing anatomical locations. May include laterality.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
+  </si>
+  <si>
+    <t>.targetBodySiteCode</t>
+  </si>
+  <si>
+    <t>ChargeItem.factorOverride</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decimal
+</t>
+  </si>
+  <si>
+    <t>Factor overriding the associated rules</t>
+  </si>
+  <si>
+    <t>Factor overriding the factor determined by the rules associated with the code.</t>
+  </si>
+  <si>
+    <t>There is no reason to carry the factor in the instance of a ChargeItem unless special circumstances require a manual override. The factors are usually defined by a set of rules in a back catalogue of the billing codes  (see ChargeItem.definition). Derived profiles may require a ChargeItem.overrideReason to be provided if either factor or price are manually overridden.</t>
+  </si>
+  <si>
+    <t>FT1.26</t>
+  </si>
+  <si>
+    <t>ChargeItem.priceOverride</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Money
+</t>
+  </si>
+  <si>
+    <t>Price overriding the associated rules</t>
+  </si>
+  <si>
+    <t>Total price of the charge overriding the list price associated with the code.</t>
+  </si>
+  <si>
+    <t>There is no reason to carry the price in the instance of a ChargeItem unless circumstances require a manual override. The list prices or are usually defined in a back catalogue of the billing codes  (see ChargeItem.definition). Derived profiles may require a ChargeItem.overrideReason to be provided if either factor or price are manually overridden.</t>
+  </si>
+  <si>
+    <t>FT1.22</t>
+  </si>
+  <si>
+    <t>ChargeItem.overrideReason</t>
+  </si>
+  <si>
+    <t>Reason for overriding the list price/factor</t>
+  </si>
+  <si>
+    <t>If the list price or the rule-based factor associated with the code is overridden, this attribute can capture a text to indicate the  reason for this action.</t>
+  </si>
+  <si>
+    <t>Derived Profiles may choose to add invariants requiring this field to be populated if either priceOverride or factorOverride have been filled.</t>
+  </si>
+  <si>
+    <t>ChargeItem.overrideReason.id</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references)</t>
+  </si>
+  <si>
+    <t>ChargeItem.overrideReason.extension</t>
+  </si>
+  <si>
+    <t>ChargeItem.overrideReason.extension:overrideReason</t>
+  </si>
+  <si>
+    <t>overrideReason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ChargeItem.overrideReason|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ChargeItem.overrideReason from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `ChargeItem.overrideReason` has is mapped to FHIR R4 element `ChargeItem.overrideReason`, but has no comparisons.</t>
+  </si>
+  <si>
+    <t>ChargeItem.overrideReason.value</t>
+  </si>
+  <si>
+    <t>Primitive value for string</t>
+  </si>
+  <si>
+    <t>The actual value</t>
+  </si>
+  <si>
+    <t>1048576</t>
+  </si>
+  <si>
+    <t>string.value</t>
+  </si>
+  <si>
+    <t>ChargeItem.enterer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Organization|4.0.1|Patient|4.0.1|Device|4.0.1|RelatedPerson|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Individual who was entering</t>
+  </si>
+  <si>
+    <t>The device, practitioner, etc. who entered the charge item.</t>
+  </si>
+  <si>
+    <t>The enterer is also the person considered responsible for factor/price overrides if applicable.</t>
+  </si>
+  <si>
+    <t>ChargeItem.enteredDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>Date the charge item was entered</t>
+  </si>
+  <si>
+    <t>Date the charge item was entered.</t>
+  </si>
+  <si>
+    <t>The actual date when the service associated with the charge has been rendered is captured in occurrence[x].</t>
+  </si>
+  <si>
+    <t>ChargeItem.reason</t>
+  </si>
+  <si>
+    <t>Why was the charged  service rendered?</t>
+  </si>
+  <si>
+    <t>Describes why the event occurred in coded or textual form.</t>
+  </si>
+  <si>
+    <t>If the application of the charge item requires a reason to be given, it can be captured here. Textual reasons can be captured using reasonCode.text.</t>
+  </si>
+  <si>
+    <t>Example binding for reason.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/icd-10|4.0.1</t>
+  </si>
+  <si>
+    <t>Event.reasonCode</t>
+  </si>
+  <si>
+    <t>EVN.4 or by domain</t>
+  </si>
+  <si>
+    <t>.reasonCode</t>
+  </si>
+  <si>
+    <t>FiveWs.why[x]</t>
+  </si>
+  <si>
+    <t>ChargeItem.service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(DiagnosticReport|4.0.1|ImagingStudy|4.0.1|Immunization|4.0.1|MedicationAdministration|4.0.1|MedicationDispense|4.0.1|Observation|4.0.1|Procedure|4.0.1|SupplyDelivery|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Which rendered service is being charged?</t>
+  </si>
+  <si>
+    <t>Indicated the rendered service that caused this charge.</t>
+  </si>
+  <si>
+    <t>Event.reasonReference</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=RSON].target</t>
+  </si>
+  <si>
+    <t>ChargeItem.service.id</t>
+  </si>
+  <si>
+    <t>ChargeItem.service.extension</t>
   </si>
   <si>
     <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
-    <t>ChargeItem.performer.actor.extension:actor</t>
-  </si>
-  <si>
-    <t>actor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
+    <t>ChargeItem.service.extension:service</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ChargeItem.service|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for ChargeItem.performer.actor from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/HealthcareService in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ChargeItem.performer.actor` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `ChargeItem.performer.actor` is mapped to FHIR R4 element `ChargeItem.performer.actor`.</t>
-  </si>
-  <si>
-    <t>ChargeItem.performer.actor.reference</t>
+    <t>Cross-version extension for ChargeItem.service from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `ChargeItem.service` has is mapped to FHIR R4 element `ChargeItem.service`, but has no comparisons.</t>
+  </si>
+  <si>
+    <t>ChargeItem.service.reference</t>
   </si>
   <si>
     <t>Literal reference, Relative, internal or absolute URL</t>
@@ -922,7 +1188,7 @@
 </t>
   </si>
   <si>
-    <t>ChargeItem.performer.actor.type</t>
+    <t>ChargeItem.service.type</t>
   </si>
   <si>
     <t>Type the reference refers to (e.g. "Patient")</t>
@@ -947,7 +1213,7 @@
     <t>Reference.type</t>
   </si>
   <si>
-    <t>ChargeItem.performer.actor.identifier</t>
+    <t>ChargeItem.service.identifier</t>
   </si>
   <si>
     <t>Logical reference, when literal reference is not known</t>
@@ -965,7 +1231,7 @@
     <t>Reference.identifier</t>
   </si>
   <si>
-    <t>ChargeItem.performer.actor.display</t>
+    <t>ChargeItem.service.display</t>
   </si>
   <si>
     <t>Text alternative for the resource</t>
@@ -978,300 +1244,6 @@
   </si>
   <si>
     <t>Reference.display</t>
-  </si>
-  <si>
-    <t>ChargeItem.performingOrganization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>Organization providing the charged service</t>
-  </si>
-  <si>
-    <t>The organization requesting the service.</t>
-  </si>
-  <si>
-    <t>Practitioners and Devices can be associated with multiple organizations. It has to be made clear, on behalf of which Organization the services have been rendered.</t>
-  </si>
-  <si>
-    <t>.scoper</t>
-  </si>
-  <si>
-    <t>ChargeItem.requestingOrganization</t>
-  </si>
-  <si>
-    <t>Organization requesting the charged service</t>
-  </si>
-  <si>
-    <t>The organization performing the service.</t>
-  </si>
-  <si>
-    <t>The rendered Service might not be associated with a Request. This property indicates which Organization requested the services to be rendered. (In many cases, this may just be the Department associated with the Encounter.location).</t>
-  </si>
-  <si>
-    <t>ChargeItem.costCenter</t>
-  </si>
-  <si>
-    <t>Organization that has ownership of the (potential, future) revenue</t>
-  </si>
-  <si>
-    <t>The financial cost center permits the tracking of charge attribution.</t>
-  </si>
-  <si>
-    <t>The costCenter could either be given as a reference to an Organization(Role) resource or as the identifier of the cost center determined by Reference.identifier.value and Reference.identifier.system, depending on use case requirements.</t>
-  </si>
-  <si>
-    <t>FT1.13</t>
-  </si>
-  <si>
-    <t>ChargeItem.quantity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantity
-</t>
-  </si>
-  <si>
-    <t>Quantity of which the charge item has been serviced</t>
-  </si>
-  <si>
-    <t>Quantity of which the charge item has been serviced.</t>
-  </si>
-  <si>
-    <t>In many cases this may just be a value, if the underlying units are implicit in the definition of the charge item code.</t>
-  </si>
-  <si>
-    <t>FT1.10</t>
-  </si>
-  <si>
-    <t>ChargeItem.bodysite</t>
-  </si>
-  <si>
-    <t>Anatomical location, if relevant</t>
-  </si>
-  <si>
-    <t>The anatomical location where the related service has been applied.</t>
-  </si>
-  <si>
-    <t>Only used if not implicit in code found in Condition.code. If the use case requires attributes from the BodySite resource (e.g. to identify and track separately) then use the standard extension [bodySite](http://hl7.org/fhir/R4/extension-bodysite.html).  May be a summary code, or a reference to a very precise definition of the location, or both.</t>
-  </si>
-  <si>
-    <t>Codes describing anatomical locations. May include laterality.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
-  </si>
-  <si>
-    <t>.targetBodySiteCode</t>
-  </si>
-  <si>
-    <t>ChargeItem.factorOverride</t>
-  </si>
-  <si>
-    <t xml:space="preserve">decimal
-</t>
-  </si>
-  <si>
-    <t>Factor overriding the associated rules</t>
-  </si>
-  <si>
-    <t>Factor overriding the factor determined by the rules associated with the code.</t>
-  </si>
-  <si>
-    <t>There is no reason to carry the factor in the instance of a ChargeItem unless special circumstances require a manual override. The factors are usually defined by a set of rules in a back catalogue of the billing codes  (see ChargeItem.definition). Derived profiles may require a ChargeItem.overrideReason to be provided if either factor or price are manually overridden.</t>
-  </si>
-  <si>
-    <t>FT1.26</t>
-  </si>
-  <si>
-    <t>ChargeItem.priceOverride</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Money
-</t>
-  </si>
-  <si>
-    <t>Price overriding the associated rules</t>
-  </si>
-  <si>
-    <t>Total price of the charge overriding the list price associated with the code.</t>
-  </si>
-  <si>
-    <t>There is no reason to carry the price in the instance of a ChargeItem unless circumstances require a manual override. The list prices or are usually defined in a back catalogue of the billing codes  (see ChargeItem.definition). Derived profiles may require a ChargeItem.overrideReason to be provided if either factor or price are manually overridden.</t>
-  </si>
-  <si>
-    <t>FT1.22</t>
-  </si>
-  <si>
-    <t>ChargeItem.overrideReason</t>
-  </si>
-  <si>
-    <t>Reason for overriding the list price/factor</t>
-  </si>
-  <si>
-    <t>If the list price or the rule-based factor associated with the code is overridden, this attribute can capture a text to indicate the  reason for this action.</t>
-  </si>
-  <si>
-    <t>Derived Profiles may choose to add invariants requiring this field to be populated if either priceOverride or factorOverride have been filled.</t>
-  </si>
-  <si>
-    <t>ChargeItem.overrideReason.id</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references)</t>
-  </si>
-  <si>
-    <t>ChargeItem.overrideReason.extension</t>
-  </si>
-  <si>
-    <t>ChargeItem.overrideReason.extension:overrideReason</t>
-  </si>
-  <si>
-    <t>overrideReason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ChargeItem.overrideReason|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ChargeItem.overrideReason from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `ChargeItem.overrideReason` is mapped to FHIR R4 element `ChargeItem.overrideReason`.</t>
-  </si>
-  <si>
-    <t>ChargeItem.overrideReason.value</t>
-  </si>
-  <si>
-    <t>Primitive value for string</t>
-  </si>
-  <si>
-    <t>The actual value</t>
-  </si>
-  <si>
-    <t>1048576</t>
-  </si>
-  <si>
-    <t>string.value</t>
-  </si>
-  <si>
-    <t>ChargeItem.enterer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Organization|4.0.1|Patient|4.0.1|Device|4.0.1|RelatedPerson|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>Individual who was entering</t>
-  </si>
-  <si>
-    <t>The device, practitioner, etc. who entered the charge item.</t>
-  </si>
-  <si>
-    <t>The enterer is also the person considered responsible for factor/price overrides if applicable.</t>
-  </si>
-  <si>
-    <t>ChargeItem.enteredDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
-    <t>Date the charge item was entered</t>
-  </si>
-  <si>
-    <t>Date the charge item was entered.</t>
-  </si>
-  <si>
-    <t>The actual date when the service associated with the charge has been rendered is captured in occurrence[x].</t>
-  </si>
-  <si>
-    <t>ChargeItem.reason</t>
-  </si>
-  <si>
-    <t>Why was the charged  service rendered?</t>
-  </si>
-  <si>
-    <t>Describes why the event occurred in coded or textual form.</t>
-  </si>
-  <si>
-    <t>If the application of the charge item requires a reason to be given, it can be captured here. Textual reasons can be captured using reasonCode.text.</t>
-  </si>
-  <si>
-    <t>Example binding for reason.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/icd-10|4.0.1</t>
-  </si>
-  <si>
-    <t>Event.reasonCode</t>
-  </si>
-  <si>
-    <t>EVN.4 or by domain</t>
-  </si>
-  <si>
-    <t>.reasonCode</t>
-  </si>
-  <si>
-    <t>FiveWs.why[x]</t>
-  </si>
-  <si>
-    <t>ChargeItem.service</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(DiagnosticReport|4.0.1|ImagingStudy|4.0.1|Immunization|4.0.1|MedicationAdministration|4.0.1|MedicationDispense|4.0.1|Observation|4.0.1|Procedure|4.0.1|SupplyDelivery|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>Which rendered service is being charged?</t>
-  </si>
-  <si>
-    <t>Indicated the rendered service that caused this charge.</t>
-  </si>
-  <si>
-    <t>Event.reasonReference</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=RSON].target</t>
-  </si>
-  <si>
-    <t>ChargeItem.service.id</t>
-  </si>
-  <si>
-    <t>ChargeItem.service.extension</t>
-  </si>
-  <si>
-    <t>ChargeItem.service.extension:service</t>
-  </si>
-  <si>
-    <t>service</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ChargeItem.service|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ChargeItem.service from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `ChargeItem.service` is mapped to FHIR R4 element `ChargeItem.service`.</t>
-  </si>
-  <si>
-    <t>ChargeItem.service.reference</t>
-  </si>
-  <si>
-    <t>ChargeItem.service.type</t>
-  </si>
-  <si>
-    <t>ChargeItem.service.identifier</t>
-  </si>
-  <si>
-    <t>ChargeItem.service.display</t>
   </si>
   <si>
     <t>ChargeItem.product[x]</t>
@@ -1654,7 +1626,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN61"/>
+  <dimension ref="A1:AN55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4331,7 +4303,7 @@
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>154</v>
+        <v>77</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4353,14 +4325,12 @@
         <v>133</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>252</v>
+        <v>134</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>77</v>
@@ -4397,19 +4367,17 @@
         <v>77</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AC24" s="2"/>
       <c r="AD24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4430,7 +4398,7 @@
         <v>77</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>250</v>
+        <v>77</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>77</v>
@@ -4438,14 +4406,16 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="C25" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="D25" t="s" s="2">
-        <v>256</v>
+        <v>77</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4458,26 +4428,24 @@
         <v>77</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>133</v>
+        <v>255</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="N25" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M25" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>158</v>
-      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>77</v>
       </c>
@@ -4525,7 +4493,7 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -4534,7 +4502,7 @@
         <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>139</v>
@@ -4546,7 +4514,7 @@
         <v>77</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>77</v>
@@ -4554,42 +4522,46 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>77</v>
+        <v>259</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>199</v>
+        <v>133</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="M26" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+      <c r="N26" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>77</v>
       </c>
@@ -4613,13 +4585,13 @@
         <v>77</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>202</v>
+        <v>77</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>263</v>
+        <v>77</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>264</v>
+        <v>77</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>77</v>
@@ -4637,28 +4609,28 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>265</v>
+        <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>173</v>
+        <v>77</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>266</v>
+        <v>131</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>77</v>
@@ -4666,10 +4638,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4677,7 +4649,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>88</v>
@@ -4692,13 +4664,13 @@
         <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>268</v>
+        <v>199</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4725,13 +4697,13 @@
         <v>77</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>77</v>
+        <v>266</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>77</v>
+        <v>267</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>77</v>
@@ -4749,10 +4721,10 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>88</v>
@@ -4764,24 +4736,24 @@
         <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>243</v>
+        <v>173</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>273</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4789,7 +4761,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>88</v>
@@ -4804,13 +4776,13 @@
         <v>77</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4861,10 +4833,10 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>88</v>
@@ -4873,27 +4845,27 @@
         <v>77</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>77</v>
+        <v>274</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>77</v>
+        <v>243</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>77</v>
+        <v>276</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4901,11 +4873,11 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G29" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G29" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H29" t="s" s="2">
         <v>77</v>
       </c>
@@ -4916,15 +4888,17 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>133</v>
+        <v>278</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>134</v>
+        <v>279</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>281</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>77</v>
@@ -4961,40 +4935,40 @@
         <v>77</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>276</v>
+        <v>77</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>254</v>
+        <v>277</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>77</v>
+        <v>274</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>77</v>
+        <v>282</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -5002,20 +4976,18 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="C30" t="s" s="2">
-        <v>278</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>88</v>
@@ -5030,16 +5002,16 @@
         <v>77</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5089,28 +5061,28 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>254</v>
+        <v>283</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>77</v>
+        <v>282</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>77</v>
@@ -5118,10 +5090,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5141,19 +5113,19 @@
         <v>77</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>246</v>
+        <v>278</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5212,7 +5184,7 @@
         <v>88</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>288</v>
+        <v>77</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>100</v>
@@ -5221,10 +5193,10 @@
         <v>77</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>77</v>
+        <v>291</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>77</v>
@@ -5232,10 +5204,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5258,16 +5230,16 @@
         <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>102</v>
+        <v>293</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5293,13 +5265,13 @@
         <v>77</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>293</v>
+        <v>77</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>294</v>
+        <v>77</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>295</v>
+        <v>77</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>77</v>
@@ -5317,7 +5289,7 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5335,10 +5307,10 @@
         <v>77</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>77</v>
+        <v>297</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
@@ -5346,10 +5318,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5360,7 +5332,7 @@
         <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>77</v>
@@ -5372,16 +5344,16 @@
         <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>161</v>
+        <v>199</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5407,13 +5379,13 @@
         <v>77</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>77</v>
+        <v>302</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>77</v>
+        <v>303</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>77</v>
@@ -5431,13 +5403,13 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>77</v>
@@ -5452,7 +5424,7 @@
         <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>167</v>
+        <v>304</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
@@ -5460,10 +5432,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5483,19 +5455,19 @@
         <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>246</v>
+        <v>306</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5545,7 +5517,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5563,10 +5535,10 @@
         <v>77</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>77</v>
+        <v>310</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>77</v>
@@ -5574,10 +5546,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5600,16 +5572,16 @@
         <v>77</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5659,7 +5631,7 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -5674,13 +5646,13 @@
         <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>271</v>
+        <v>77</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>131</v>
+        <v>316</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>312</v>
+        <v>77</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>
@@ -5688,10 +5660,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5714,16 +5686,16 @@
         <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>308</v>
+        <v>246</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5773,7 +5745,7 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -5791,10 +5763,10 @@
         <v>77</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>312</v>
+        <v>77</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>77</v>
@@ -5802,10 +5774,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5828,17 +5800,15 @@
         <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>308</v>
+        <v>246</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>320</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>77</v>
@@ -5887,7 +5857,7 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>317</v>
+        <v>249</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -5899,13 +5869,13 @@
         <v>77</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>321</v>
+        <v>77</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>77</v>
@@ -5916,10 +5886,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5930,7 +5900,7 @@
         <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>77</v>
@@ -5939,20 +5909,18 @@
         <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>323</v>
+        <v>133</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>324</v>
+        <v>134</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>326</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -5989,37 +5957,35 @@
         <v>77</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AC38" s="2"/>
       <c r="AD38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>322</v>
+        <v>252</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>327</v>
+        <v>77</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>77</v>
@@ -6030,12 +5996,14 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C39" s="2"/>
+        <v>324</v>
+      </c>
+      <c r="C39" t="s" s="2">
+        <v>326</v>
+      </c>
       <c r="D39" t="s" s="2">
         <v>77</v>
       </c>
@@ -6044,7 +6012,7 @@
         <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>77</v>
@@ -6053,19 +6021,19 @@
         <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>199</v>
+        <v>327</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="N39" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6091,13 +6059,13 @@
         <v>77</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>202</v>
+        <v>77</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>332</v>
+        <v>77</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>333</v>
+        <v>77</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>77</v>
@@ -6115,7 +6083,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>328</v>
+        <v>252</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6124,10 +6092,10 @@
         <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>77</v>
@@ -6136,7 +6104,7 @@
         <v>77</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>334</v>
+        <v>77</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>77</v>
@@ -6144,10 +6112,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6170,17 +6138,15 @@
         <v>77</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>336</v>
+        <v>246</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>339</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -6202,7 +6168,7 @@
         <v>77</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>77</v>
+        <v>333</v>
       </c>
       <c r="X40" t="s" s="2">
         <v>77</v>
@@ -6229,7 +6195,7 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6241,13 +6207,13 @@
         <v>77</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>340</v>
+        <v>77</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>77</v>
@@ -6258,10 +6224,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6281,19 +6247,19 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6343,7 +6309,7 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6361,21 +6327,21 @@
         <v>77</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>346</v>
+        <v>243</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>77</v>
+        <v>275</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>77</v>
+        <v>276</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6395,19 +6361,19 @@
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>246</v>
+        <v>341</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6457,7 +6423,7 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6486,10 +6452,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6500,7 +6466,7 @@
         <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>77</v>
@@ -6512,15 +6478,17 @@
         <v>77</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>246</v>
+        <v>199</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -6545,13 +6513,13 @@
         <v>77</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>77</v>
+        <v>349</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>77</v>
+        <v>350</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>77</v>
@@ -6569,39 +6537,39 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>249</v>
+        <v>345</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>77</v>
+        <v>351</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>77</v>
+        <v>352</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>77</v>
+        <v>353</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>77</v>
+        <v>354</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6624,13 +6592,13 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>133</v>
+        <v>356</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>134</v>
+        <v>357</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>135</v>
+        <v>358</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6669,17 +6637,19 @@
         <v>77</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AC44" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>254</v>
+        <v>355</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6691,31 +6661,29 @@
         <v>77</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>77</v>
+        <v>359</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>77</v>
+        <v>352</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>77</v>
+        <v>360</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>77</v>
+        <v>354</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="C45" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
         <v>77</v>
       </c>
@@ -6736,17 +6704,15 @@
         <v>77</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>357</v>
+        <v>246</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>358</v>
+        <v>247</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>359</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -6795,19 +6761,19 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>77</v>
@@ -6816,7 +6782,7 @@
         <v>77</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>77</v>
+        <v>250</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>77</v>
@@ -6824,10 +6790,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6838,7 +6804,7 @@
         <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>77</v>
@@ -6850,13 +6816,13 @@
         <v>77</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>246</v>
+        <v>133</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>361</v>
+        <v>134</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>362</v>
+        <v>135</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6880,46 +6846,46 @@
         <v>77</v>
       </c>
       <c r="W46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AC46" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="X46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AD46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>364</v>
+        <v>252</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>77</v>
@@ -6936,12 +6902,14 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="C47" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="B47" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
         <v>77</v>
       </c>
@@ -6950,7 +6918,7 @@
         <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>77</v>
@@ -6959,7 +6927,7 @@
         <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
         <v>366</v>
@@ -6968,10 +6936,10 @@
         <v>367</v>
       </c>
       <c r="M47" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="N47" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7021,39 +6989,39 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>365</v>
+        <v>252</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>243</v>
+        <v>77</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>272</v>
+        <v>77</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>273</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7076,16 +7044,16 @@
         <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7135,7 +7103,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7144,7 +7112,7 @@
         <v>88</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>77</v>
+        <v>374</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>100</v>
@@ -7156,7 +7124,7 @@
         <v>77</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>77</v>
@@ -7178,7 +7146,7 @@
         <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>77</v>
@@ -7187,10 +7155,10 @@
         <v>77</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>199</v>
+        <v>102</v>
       </c>
       <c r="L49" t="s" s="2">
         <v>376</v>
@@ -7225,13 +7193,13 @@
         <v>77</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>202</v>
+        <v>379</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>77</v>
@@ -7249,13 +7217,13 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>77</v>
@@ -7264,24 +7232,24 @@
         <v>100</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>381</v>
+        <v>77</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>382</v>
+        <v>77</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>383</v>
+        <v>131</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>384</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7292,7 +7260,7 @@
         <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>77</v>
@@ -7301,18 +7269,20 @@
         <v>77</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="N50" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="L50" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -7361,13 +7331,13 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>77</v>
@@ -7376,24 +7346,24 @@
         <v>100</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>389</v>
+        <v>77</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>382</v>
+        <v>77</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>390</v>
+        <v>167</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>384</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7413,18 +7383,20 @@
         <v>77</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K51" t="s" s="2">
         <v>246</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>247</v>
+        <v>389</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>390</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>391</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>77</v>
@@ -7473,7 +7445,7 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>249</v>
+        <v>392</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -7485,7 +7457,7 @@
         <v>77</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>77</v>
@@ -7494,7 +7466,7 @@
         <v>77</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>250</v>
+        <v>131</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>77</v>
@@ -7502,10 +7474,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7516,7 +7488,7 @@
         <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>77</v>
@@ -7528,13 +7500,13 @@
         <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>133</v>
+        <v>394</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>134</v>
+        <v>395</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>135</v>
+        <v>396</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7561,43 +7533,43 @@
         <v>77</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>77</v>
+        <v>397</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>77</v>
+        <v>398</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>276</v>
+        <v>77</v>
       </c>
       <c r="AD52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>254</v>
+        <v>393</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>77</v>
@@ -7606,7 +7578,7 @@
         <v>77</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>77</v>
+        <v>399</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>77</v>
@@ -7614,14 +7586,12 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="C53" t="s" s="2">
-        <v>394</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
         <v>77</v>
       </c>
@@ -7639,19 +7609,19 @@
         <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7701,7 +7671,7 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>254</v>
+        <v>400</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -7713,7 +7683,7 @@
         <v>77</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>77</v>
@@ -7730,10 +7700,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7744,7 +7714,7 @@
         <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>77</v>
@@ -7753,20 +7723,18 @@
         <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>246</v>
+        <v>406</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>284</v>
+        <v>407</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>286</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>77</v>
@@ -7815,28 +7783,28 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>287</v>
+        <v>405</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>288</v>
+        <v>77</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>77</v>
+        <v>409</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>77</v>
+        <v>410</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>131</v>
+        <v>411</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>77</v>
@@ -7844,10 +7812,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7858,7 +7826,7 @@
         <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>77</v>
@@ -7867,20 +7835,18 @@
         <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>102</v>
+        <v>413</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>290</v>
+        <v>414</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>292</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -7905,13 +7871,13 @@
         <v>77</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>293</v>
+        <v>77</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>294</v>
+        <v>77</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>295</v>
+        <v>77</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>77</v>
@@ -7929,13 +7895,13 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>296</v>
+        <v>412</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>77</v>
@@ -7944,693 +7910,15 @@
         <v>100</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>77</v>
+        <v>416</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="C56" s="2"/>
-      <c r="D56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E56" s="2"/>
-      <c r="F56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G56" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J56" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="O56" s="2"/>
-      <c r="P56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q56" s="2"/>
-      <c r="R56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="C57" s="2"/>
-      <c r="D57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E57" s="2"/>
-      <c r="F57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="O57" s="2"/>
-      <c r="P57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q57" s="2"/>
-      <c r="R57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="C58" s="2"/>
-      <c r="D58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E58" s="2"/>
-      <c r="F58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
-      <c r="P58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q58" s="2"/>
-      <c r="R58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="C59" s="2"/>
-      <c r="D59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E59" s="2"/>
-      <c r="F59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J59" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K59" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="O59" s="2"/>
-      <c r="P59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q59" s="2"/>
-      <c r="R59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="C60" s="2"/>
-      <c r="D60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E60" s="2"/>
-      <c r="F60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K60" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
-      <c r="P60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q60" s="2"/>
-      <c r="R60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="C61" s="2"/>
-      <c r="D61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E61" s="2"/>
-      <c r="F61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K61" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
-      <c r="P61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q61" s="2"/>
-      <c r="R61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN61" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/StructureDefinition-profile-ChargeItem.xlsx
+++ b/StructureDefinition-profile-ChargeItem.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.7478818-06:00</t>
+    <t>2026-02-20T11:59:20.7470362-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ChargeItem|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/ChargeItem</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -455,7 +455,7 @@
     <t>unitPriceComponent</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ChargeItem.unitPriceComponent|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ChargeItem.unitPriceComponent}
 </t>
   </si>
   <si>
@@ -478,7 +478,7 @@
     <t>totalPriceComponent</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ChargeItem.totalPriceComponent|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ChargeItem.totalPriceComponent}
 </t>
   </si>
   <si>
@@ -814,7 +814,7 @@
     <t>performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ChargeItem.performer|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ChargeItem.performer}
 </t>
   </si>
   <si>
@@ -1038,7 +1038,7 @@
     <t>overrideReason</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ChargeItem.overrideReason|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ChargeItem.overrideReason}
 </t>
   </si>
   <si>
@@ -1159,7 +1159,7 @@
     <t>service</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ChargeItem.service|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ChargeItem.service}
 </t>
   </si>
   <si>

--- a/StructureDefinition-profile-ChargeItem.xlsx
+++ b/StructureDefinition-profile-ChargeItem.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2006" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1971" uniqueCount="414">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.7470362-06:00</t>
+    <t>2026-02-21T13:36:54.1460417-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ChargeItem</t>
+    <t>http://hl7.org/fhir/StructureDefinition/ChargeItem|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -455,7 +455,7 @@
     <t>unitPriceComponent</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ChargeItem.unitPriceComponent}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ChargeItem.unitPriceComponent|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -478,7 +478,7 @@
     <t>totalPriceComponent</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ChargeItem.totalPriceComponent}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ChargeItem.totalPriceComponent|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -805,23 +805,13 @@
     <t>ChargeItem.performer.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
     <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ChargeItem.performer.extension:performer</t>
-  </si>
-  <si>
-    <t>performer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ChargeItem.performer}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ChargeItem.performer from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `ChargeItem.performer` has is mapped to FHIR R4 element `ChargeItem.performer`, but has no comparisons.</t>
   </si>
   <si>
     <t>ChargeItem.performer.modifierExtension</t>
@@ -1038,14 +1028,14 @@
     <t>overrideReason</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ChargeItem.overrideReason}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ChargeItem.overrideReason|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
     <t>Cross-version extension for ChargeItem.overrideReason from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Element `ChargeItem.overrideReason` has is mapped to FHIR R4 element `ChargeItem.overrideReason`, but has no comparisons.</t>
+    <t>Element `ChargeItem.overrideReason` is mapped to FHIR R4 element `ChargeItem.overrideReason` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>ChargeItem.overrideReason.value</t>
@@ -1159,14 +1149,14 @@
     <t>service</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ChargeItem.service}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ChargeItem.service|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
     <t>Cross-version extension for ChargeItem.service from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Element `ChargeItem.service` has is mapped to FHIR R4 element `ChargeItem.service`, but has no comparisons.</t>
+    <t>Element `ChargeItem.service` is mapped to FHIR R4 element `ChargeItem.service` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>ChargeItem.service.reference</t>
@@ -1626,7 +1616,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN55"/>
+  <dimension ref="A1:AN54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4303,7 +4293,7 @@
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4325,12 +4315,14 @@
         <v>133</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>134</v>
+        <v>252</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>77</v>
@@ -4367,17 +4359,19 @@
         <v>77</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AC24" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4398,7 +4392,7 @@
         <v>77</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>77</v>
+        <v>250</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>77</v>
@@ -4406,16 +4400,14 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>254</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>77</v>
+        <v>256</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4428,24 +4420,26 @@
         <v>77</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>255</v>
+        <v>133</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="O25" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
       </c>
@@ -4493,7 +4487,7 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -4502,7 +4496,7 @@
         <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>139</v>
@@ -4514,7 +4508,7 @@
         <v>77</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>77</v>
@@ -4522,46 +4516,42 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>259</v>
+        <v>77</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>133</v>
+        <v>199</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>158</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>77</v>
       </c>
@@ -4585,13 +4575,13 @@
         <v>77</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>77</v>
+        <v>263</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>77</v>
+        <v>264</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>77</v>
@@ -4609,28 +4599,28 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>77</v>
+        <v>265</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>77</v>
+        <v>173</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>131</v>
+        <v>266</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>77</v>
@@ -4638,10 +4628,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4649,7 +4639,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>88</v>
@@ -4664,13 +4654,13 @@
         <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>199</v>
+        <v>268</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4697,34 +4687,34 @@
         <v>77</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>202</v>
+        <v>77</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>266</v>
+        <v>77</v>
       </c>
       <c r="Z27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF27" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="AA27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>263</v>
-      </c>
       <c r="AG27" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>88</v>
@@ -4736,24 +4726,24 @@
         <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>173</v>
+        <v>243</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>77</v>
+        <v>273</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4761,7 +4751,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>88</v>
@@ -4776,15 +4766,17 @@
         <v>77</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -4833,10 +4825,10 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>88</v>
@@ -4848,24 +4840,24 @@
         <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>243</v>
+        <v>131</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>276</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4888,16 +4880,16 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4947,7 +4939,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -4962,13 +4954,13 @@
         <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>274</v>
+        <v>77</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>131</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -4976,10 +4968,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5002,16 +4994,16 @@
         <v>77</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5061,7 +5053,7 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5079,10 +5071,10 @@
         <v>77</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>131</v>
+        <v>288</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>282</v>
+        <v>77</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>77</v>
@@ -5090,10 +5082,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5113,19 +5105,19 @@
         <v>77</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5175,7 +5167,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5193,7 +5185,7 @@
         <v>77</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>77</v>
@@ -5204,10 +5196,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5218,7 +5210,7 @@
         <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>77</v>
@@ -5230,16 +5222,16 @@
         <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>293</v>
+        <v>199</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5265,13 +5257,13 @@
         <v>77</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>77</v>
+        <v>299</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>77</v>
+        <v>300</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>77</v>
@@ -5289,13 +5281,13 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>77</v>
@@ -5307,10 +5299,10 @@
         <v>77</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>297</v>
+        <v>77</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>77</v>
+        <v>301</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
@@ -5318,10 +5310,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5332,7 +5324,7 @@
         <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>77</v>
@@ -5341,19 +5333,19 @@
         <v>77</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>199</v>
+        <v>303</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5379,37 +5371,37 @@
         <v>77</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>202</v>
+        <v>77</v>
       </c>
       <c r="Y33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF33" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="Z33" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>298</v>
-      </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>77</v>
@@ -5421,10 +5413,10 @@
         <v>77</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>77</v>
+        <v>307</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>304</v>
+        <v>77</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
@@ -5432,10 +5424,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5458,16 +5450,16 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5517,7 +5509,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5535,7 +5527,7 @@
         <v>77</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>77</v>
@@ -5546,10 +5538,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5572,16 +5564,16 @@
         <v>77</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>312</v>
+        <v>246</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5631,7 +5623,7 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -5649,7 +5641,7 @@
         <v>77</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>316</v>
+        <v>77</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>77</v>
@@ -5660,10 +5652,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5689,14 +5681,12 @@
         <v>246</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="N36" t="s" s="2">
         <v>320</v>
       </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>77</v>
@@ -5745,7 +5735,7 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>317</v>
+        <v>249</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -5757,7 +5747,7 @@
         <v>77</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>77</v>
@@ -5788,7 +5778,7 @@
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>77</v>
@@ -5800,13 +5790,13 @@
         <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>246</v>
+        <v>133</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>322</v>
+        <v>134</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>323</v>
+        <v>135</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5845,31 +5835,29 @@
         <v>77</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AC37" s="2"/>
       <c r="AD37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>77</v>
@@ -5886,12 +5874,14 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="C38" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="C38" t="s" s="2">
+        <v>323</v>
+      </c>
       <c r="D38" t="s" s="2">
         <v>77</v>
       </c>
@@ -5900,7 +5890,7 @@
         <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>77</v>
@@ -5912,15 +5902,17 @@
         <v>77</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>133</v>
+        <v>324</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>134</v>
+        <v>325</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>326</v>
+      </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -5957,17 +5949,19 @@
         <v>77</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AC38" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -5976,7 +5970,7 @@
         <v>79</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>139</v>
@@ -5996,14 +5990,12 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="C39" t="s" s="2">
-        <v>326</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
         <v>77</v>
       </c>
@@ -6024,17 +6016,15 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>327</v>
+        <v>246</v>
       </c>
       <c r="L39" t="s" s="2">
         <v>328</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="N39" t="s" s="2">
         <v>329</v>
       </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>77</v>
@@ -6056,7 +6046,7 @@
         <v>77</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>77</v>
+        <v>330</v>
       </c>
       <c r="X39" t="s" s="2">
         <v>77</v>
@@ -6083,19 +6073,19 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>252</v>
+        <v>331</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>77</v>
@@ -6112,10 +6102,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6135,18 +6125,20 @@
         <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>246</v>
+        <v>333</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>335</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>336</v>
+      </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -6168,7 +6160,7 @@
         <v>77</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>333</v>
+        <v>77</v>
       </c>
       <c r="X40" t="s" s="2">
         <v>77</v>
@@ -6195,7 +6187,7 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6207,27 +6199,27 @@
         <v>77</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>77</v>
+        <v>243</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>77</v>
+        <v>272</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>77</v>
+        <v>273</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6250,16 +6242,16 @@
         <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6309,7 +6301,7 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6327,21 +6319,21 @@
         <v>77</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>243</v>
+        <v>77</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>275</v>
+        <v>77</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>276</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6352,7 +6344,7 @@
         <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>77</v>
@@ -6361,19 +6353,19 @@
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>341</v>
+        <v>199</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6399,13 +6391,13 @@
         <v>77</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>77</v>
+        <v>346</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>77</v>
+        <v>347</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>77</v>
@@ -6423,13 +6415,13 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>77</v>
@@ -6438,24 +6430,24 @@
         <v>100</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>77</v>
+        <v>348</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>77</v>
+        <v>349</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>77</v>
+        <v>350</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>77</v>
+        <v>351</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6478,17 +6470,15 @@
         <v>77</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>199</v>
+        <v>353</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>348</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -6513,13 +6503,13 @@
         <v>77</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>202</v>
+        <v>77</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>349</v>
+        <v>77</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>350</v>
+        <v>77</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>77</v>
@@ -6537,7 +6527,7 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6552,24 +6542,24 @@
         <v>100</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AN43" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>354</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6580,7 +6570,7 @@
         <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>77</v>
@@ -6592,13 +6582,13 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>356</v>
+        <v>246</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>357</v>
+        <v>247</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>358</v>
+        <v>248</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6649,39 +6639,39 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>355</v>
+        <v>249</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>359</v>
+        <v>77</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>352</v>
+        <v>77</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>354</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6692,7 +6682,7 @@
         <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>77</v>
@@ -6704,13 +6694,13 @@
         <v>77</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>246</v>
+        <v>133</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>247</v>
+        <v>134</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>248</v>
+        <v>135</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6749,31 +6739,31 @@
         <v>77</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>77</v>
+        <v>360</v>
       </c>
       <c r="AD45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>77</v>
@@ -6782,7 +6772,7 @@
         <v>77</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>250</v>
+        <v>77</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>77</v>
@@ -6790,12 +6780,14 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="C46" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="B46" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
         <v>77</v>
       </c>
@@ -6816,15 +6808,17 @@
         <v>77</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>133</v>
+        <v>363</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>134</v>
+        <v>364</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>355</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>365</v>
+      </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>77</v>
@@ -6861,19 +6855,19 @@
         <v>77</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>363</v>
+        <v>77</v>
       </c>
       <c r="AD46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -6902,14 +6896,12 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="C47" t="s" s="2">
-        <v>365</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
         <v>77</v>
       </c>
@@ -6918,7 +6910,7 @@
         <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>77</v>
@@ -6927,19 +6919,19 @@
         <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>366</v>
+        <v>246</v>
       </c>
       <c r="L47" t="s" s="2">
         <v>367</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -6989,19 +6981,19 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>252</v>
+        <v>370</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>77</v>
+        <v>371</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>77</v>
@@ -7010,7 +7002,7 @@
         <v>77</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>77</v>
@@ -7018,10 +7010,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7044,16 +7036,16 @@
         <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>246</v>
+        <v>102</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7079,13 +7071,13 @@
         <v>77</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>77</v>
+        <v>376</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>77</v>
+        <v>377</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>77</v>
+        <v>378</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>77</v>
@@ -7103,7 +7095,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7112,7 +7104,7 @@
         <v>88</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>374</v>
+        <v>77</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>100</v>
@@ -7132,10 +7124,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7158,16 +7150,16 @@
         <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>102</v>
+        <v>161</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7193,13 +7185,13 @@
         <v>77</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>379</v>
+        <v>77</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>380</v>
+        <v>77</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>381</v>
+        <v>77</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>77</v>
@@ -7217,7 +7209,7 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7238,7 +7230,7 @@
         <v>77</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>77</v>
@@ -7246,10 +7238,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7272,16 +7264,16 @@
         <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>161</v>
+        <v>246</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7331,7 +7323,7 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7352,7 +7344,7 @@
         <v>77</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>167</v>
+        <v>131</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>77</v>
@@ -7360,10 +7352,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7383,20 +7375,18 @@
         <v>77</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>246</v>
+        <v>391</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>391</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>77</v>
@@ -7421,13 +7411,13 @@
         <v>77</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>77</v>
+        <v>394</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>77</v>
+        <v>395</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>77</v>
@@ -7445,7 +7435,7 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -7466,7 +7456,7 @@
         <v>77</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>131</v>
+        <v>396</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>77</v>
@@ -7474,10 +7464,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7488,7 +7478,7 @@
         <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>77</v>
@@ -7497,18 +7487,20 @@
         <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>400</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>401</v>
+      </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>77</v>
@@ -7533,37 +7525,37 @@
         <v>77</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>202</v>
+        <v>77</v>
       </c>
       <c r="Y52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF52" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="Z52" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>393</v>
-      </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>77</v>
@@ -7578,7 +7570,7 @@
         <v>77</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>399</v>
+        <v>77</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>77</v>
@@ -7586,10 +7578,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7609,20 +7601,18 @@
         <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>404</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>77</v>
@@ -7671,7 +7661,7 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -7686,13 +7676,13 @@
         <v>100</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>77</v>
+        <v>406</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>77</v>
+        <v>407</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>77</v>
+        <v>408</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>77</v>
@@ -7700,10 +7690,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7726,13 +7716,13 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7783,7 +7773,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -7798,127 +7788,15 @@
         <v>100</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>410</v>
+        <v>77</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>411</v>
+        <v>77</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="C55" s="2"/>
-      <c r="D55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E55" s="2"/>
-      <c r="F55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K55" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
-      <c r="P55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q55" s="2"/>
-      <c r="R55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN55" t="s" s="2">
         <v>77</v>
       </c>
     </row>
